--- a/public/plugin/xls/Surat Kematian.xlsx
+++ b/public/plugin/xls/Surat Kematian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps-desa-dukuh\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74BF257-2552-4A13-AE15-542E8BFB84A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B8E6F0-AC96-4047-B516-C1C613FB6B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9300" windowHeight="2085" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
     <t>Cibungbulang</t>
   </si>
   <si>
-    <t>Cimanggu Satu</t>
-  </si>
-  <si>
-    <t>Cimanggu,</t>
+    <t>Dukuh,</t>
+  </si>
+  <si>
+    <t>Dukuh</t>
   </si>
 </sst>
 </file>
@@ -347,9 +347,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -387,7 +387,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -493,7 +493,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8843A390-243C-4F6A-8DC2-FF87348860CD}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -928,7 +928,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="22"/>
